--- a/tests/polybench-c-4.0/results/isl-checks-vs-newest-polly.xlsx
+++ b/tests/polybench-c-4.0/results/isl-checks-vs-newest-polly.xlsx
@@ -184,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -193,15 +193,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -211,30 +205,15 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -242,6 +221,24 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -281,22 +278,6 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -304,6 +285,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -581,11 +578,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2085580248"/>
-        <c:axId val="2085583256"/>
+        <c:axId val="2086721208"/>
+        <c:axId val="2086704200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2085580248"/>
+        <c:axId val="2086721208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -594,7 +591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085583256"/>
+        <c:crossAx val="2086704200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -602,7 +599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085583256"/>
+        <c:axId val="2086704200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -623,7 +620,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085580248"/>
+        <c:crossAx val="2086721208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1123,548 +1120,547 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M3"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="1:16" ht="16" thickBot="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
     <row r="7" spans="1:16" ht="16" thickBot="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="11">
         <v>4.2863756669999997</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="12">
         <v>1.292744833</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <f t="shared" ref="D8:D36" si="0">C8/B8</f>
         <v>0.30159391836618504</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="11">
         <v>4.1305909999999999</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="12">
         <v>1.282075667</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>0.31038552763999144</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="11">
         <v>7.4074611670000001</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="12">
         <v>3.3864675000000002</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>0.4571697945696433</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="11">
         <v>3.2878368330000001</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="12">
         <v>2.081530833</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>0.63310040574632132</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="11">
         <v>0.84321833300000004</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="12">
         <v>0.58956333299999997</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>0.69918229944367205</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="11">
         <v>1.1140761669999999</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="12">
         <v>0.90927800000000003</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>0.81617220342170749</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="11">
         <v>4.9536853330000001</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="12">
         <v>4.253116833</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>0.85857630170147903</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="11">
         <v>1.5091833000000001E-2</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="12">
         <v>1.3306999999999999E-2</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>0.88173517424954273</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="11">
         <v>1.7296670000000001E-3</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="12">
         <v>1.5275E-3</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <f t="shared" si="0"/>
         <v>0.88311796432492495</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="11">
         <v>3.0442986670000001</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="12">
         <v>2.7589511670000002</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <f t="shared" si="0"/>
         <v>0.90626823081021968</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="11">
         <v>3.1301220000000001</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="12">
         <v>2.8374945</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>0.90651242986695091</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="11">
         <v>6.5051670000000001E-3</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="12">
         <v>6.0638330000000002E-3</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <f t="shared" si="0"/>
         <v>0.93215639198809197</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="11">
         <v>4.2944999999999997E-3</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="12">
         <v>4.1419999999999998E-3</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <f t="shared" si="0"/>
         <v>0.96448946326696938</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="11">
         <v>31.718735500000001</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="12">
         <v>31.715688830000001</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <f t="shared" si="0"/>
         <v>0.99990394730584387</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="11">
         <v>4.9357841669999996</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="12">
         <v>4.9420058329999996</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <f t="shared" si="0"/>
         <v>1.0012605222978745</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="11">
         <v>1.7688855000000001</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="12">
         <v>1.7732323329999999</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <f t="shared" si="0"/>
         <v>1.0024573851727541</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="11">
         <v>9.0006011669999992</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="12">
         <v>9.0477246670000007</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <f t="shared" si="0"/>
         <v>1.0052355947259142</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="11">
         <v>0.232074</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="12">
         <v>0.24724516699999999</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <f t="shared" si="0"/>
         <v>1.0653721097580944</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="11">
         <v>21.59016883</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="12">
         <v>23.084667670000002</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <f t="shared" si="0"/>
         <v>1.0692212669464336</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="11">
         <v>8.2581120000000006</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="12">
         <v>9.2100685000000002</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <f t="shared" si="0"/>
         <v>1.1152753195887872</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="11">
         <v>1.7446333000000001E-2</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="12">
         <v>1.9809166999999999E-2</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <f t="shared" si="0"/>
         <v>1.1354344205169074</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="11">
         <v>3.0170135</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="12">
         <v>3.5037535000000002</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <f t="shared" si="0"/>
         <v>1.1613317275511033</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="11">
         <v>2.4749500000000001E-2</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="12">
         <v>2.9205999999999999E-2</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <f t="shared" si="0"/>
         <v>1.1800642437220954</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="11">
         <v>1.2334145000000001</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="12">
         <v>1.545431</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <f t="shared" si="0"/>
         <v>1.2529697032100724</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="11">
         <v>4.4385884999999998</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="12">
         <v>5.654569167</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <f t="shared" si="0"/>
         <v>1.2739566118823586</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="11">
         <v>4.6127488330000004</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="12">
         <v>8.3417963329999996</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <f t="shared" si="0"/>
         <v>1.8084219702841988</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="11">
         <v>2.904167E-3</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="12">
         <v>5.3468329999999996E-3</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <f t="shared" si="0"/>
         <v>1.8410900612809111</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="11">
         <v>0.88790783299999998</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="12">
         <v>1.683137667</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <f t="shared" si="0"/>
         <v>1.8956220504476617</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16" thickBot="1">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="11">
         <v>8.4171669999999997E-3</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="12">
         <v>1.9431832999999999E-2</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="6">
         <f t="shared" si="0"/>
         <v>2.3085953979527791</v>
       </c>
